--- a/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3127" uniqueCount="488">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T12:08:26+07:00</t>
+    <t>2024-05-22T17:23:47+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -497,7 +497,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterStatusVS</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -671,7 +671,7 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterClassVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-class</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -747,7 +747,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterTypeVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -768,7 +768,7 @@
     <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterServiceTypeVS</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -783,7 +783,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ActPriorityVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -911,7 +911,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/ParticipationTypeVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ParticipationType</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1056,7 +1056,7 @@
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterReasonCodesVS</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1074,7 +1074,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.kemkes.go.id/r4/StructureDefinition/IDCoreCondition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
 </t>
   </si>
   <si>
@@ -1109,7 +1109,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.kemkes.go.id/r4/StructureDefinition/IDCoreCondition)
+    <t xml:space="preserve">Reference(Condition)
 </t>
   </si>
   <si>
@@ -1137,7 +1137,7 @@
     <t>Role that this diagnosis has within the encounter (e.g. admission, billing, discharge …).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterDiagnosisUseVS</t>
+    <t>http://terminology.hl7.org/ValueSet/diagnosis-role</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1238,7 +1238,7 @@
     <t>From where patient was admitted (physician referral, transfer).</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterHospitalizationAdmitSourceVS</t>
+    <t>http://terminology.hl7.org/ValueSet/encounter-admit-source</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1256,7 +1256,7 @@
     <t>Whether this hospitalization is a readmission and why if known.</t>
   </si>
   <si>
-    <t>https://fhir.kemkes.go.id/r4/ValueSet/EncounterHospitalizationreAdmitSourceVS</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1397,10 +1397,10 @@
     <t>An Extension</t>
   </si>
   <si>
-    <t>Encounter.location.extension:encounterLocation</t>
-  </si>
-  <si>
-    <t>encounterLocation</t>
+    <t>Encounter.location.extension:encounterlocation</t>
+  </si>
+  <si>
+    <t>encounterlocation</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {https://fhir.kemkes.go.id/r4/StructureDefinition/EncounterLocation}
@@ -1408,9 +1408,6 @@
   </si>
   <si>
     <t>Encounter Location Extention</t>
-  </si>
-  <si>
-    <t>The administrative code of the address, represented in six levels: province, city/regency, district, village, rt and rw.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1837,7 +1834,7 @@
   <cols>
     <col min="1" max="1" width="44.98828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1845,7 +1842,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="121.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1860,7 +1857,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.96484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.20703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -10485,7 +10482,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>76</v>
@@ -10711,7 +10708,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -10823,10 +10820,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10844,7 +10841,7 @@
         <v>449</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10904,7 +10901,7 @@
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>136</v>
@@ -10924,10 +10921,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11040,10 +11037,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11066,13 +11063,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11123,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>85</v>
@@ -11138,24 +11135,24 @@
         <v>97</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>302</v>
       </c>
       <c r="AM82" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11181,13 +11178,13 @@
         <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11216,11 +11213,11 @@
         <v>154</v>
       </c>
       <c r="Y83" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z83" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z83" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="AA83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11237,7 +11234,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>75</v>
@@ -11255,7 +11252,7 @@
         <v>77</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>77</v>
@@ -11266,10 +11263,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11295,13 +11292,13 @@
         <v>231</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11330,11 +11327,11 @@
         <v>406</v>
       </c>
       <c r="Y84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="Z84" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="AA84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11351,7 +11348,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>75</v>
@@ -11380,10 +11377,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11409,10 +11406,10 @@
         <v>181</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11463,7 +11460,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>75</v>
@@ -11492,10 +11489,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11518,13 +11515,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11575,7 +11572,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>75</v>
@@ -11593,21 +11590,21 @@
         <v>301</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>481</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11630,16 +11627,16 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11689,7 +11686,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>75</v>
@@ -11704,10 +11701,10 @@
         <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AL87" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>

--- a/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T17:23:47+07:00</t>
+    <t>2024-05-23T10:54:59+07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
@@ -54,19 +54,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T10:54:59+07:00</t>
+    <t>2024-05-29T21:39:03+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Thomas Chaidir</t>
+    <t>SatuSehat</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>SatuSehat (https://satusehat.kemkes.go.id/, fhir@dto.kemkes.go.id)</t>
   </si>
   <si>
     <t>Description</t>

--- a/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
+++ b/output/StructureDefinition-IDCoreEncounterStatusFinished.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T21:39:03+07:00</t>
+    <t>2024-05-30T10:41:30+07:00</t>
   </si>
   <si>
     <t>Publisher</t>
